--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_SwapFromBasisQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_SwapFromBasisQuotes.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="13" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
@@ -734,7 +735,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -821,7 +822,7 @@
       </c>
       <c r="D8" s="11" t="str">
         <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>X:\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -919,4 +920,16 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_SwapFromBasisQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_SwapFromBasisQuotes.xlsx
@@ -432,13 +432,15 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Feuil1"/>
+      <sheetName val="Menu"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <definedNames>
       <definedName name="qlSerializationPath"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -735,7 +737,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -753,7 +755,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -822,7 +824,7 @@
       </c>
       <c r="D8" s="11" t="str">
         <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -924,6 +926,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_SwapFromBasisQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_SwapFromBasisQuotes.xlsx
@@ -10,9 +10,6 @@
     <sheet name="General Settings" sheetId="13" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="14" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Currency</t>
   </si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>HKD</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -428,24 +428,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -822,9 +804,8 @@
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E8" s="10"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_SwapFromBasisQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_SwapFromBasisQuotes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Currency</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>HKD</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -804,8 +801,9 @@
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>14</v>
+      <c r="D8" s="11" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="10"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_SwapFromBasisQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_SwapFromBasisQuotes.xlsx
@@ -716,7 +716,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -734,7 +734,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov  6 2013 01:01:46</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -759,7 +759,9 @@
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9">
+        <v>41585.632152777776</v>
+      </c>
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -803,7 +805,7 @@
       </c>
       <c r="D8" s="11" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="10"/>
     </row>
